--- a/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Tristeza escala 0-10</t>
+          <t>Bienestar emocional - Tristeza escala 0-10 (tasa de respuesta: 99,85%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,55</t>
+          <t>1,67; 2,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,48</t>
+          <t>2,7; 3,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,43</t>
+          <t>2,2; 3,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 3,45</t>
+          <t>2,7; 3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 3,85</t>
+          <t>3,42; 3,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,63</t>
+          <t>3,25; 4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,03</t>
+          <t>2,38; 2,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,61</t>
+          <t>3,23; 3,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,87</t>
+          <t>2,91; 3,9</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,47</t>
+          <t>2,17; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,09</t>
+          <t>1,98; 3,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,8</t>
+          <t>2,37; 2,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,12</t>
+          <t>2,7; 3,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,16</t>
+          <t>2,41; 3,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,49</t>
+          <t>3,03; 3,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,76</t>
+          <t>2,48; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 2,96</t>
+          <t>2,28; 3,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 3,07</t>
+          <t>2,76; 3,08</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 2,37</t>
+          <t>1,9; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 1,79</t>
+          <t>1,39; 1,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,42</t>
+          <t>1,98; 2,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,75</t>
+          <t>2,26; 2,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 2,24</t>
+          <t>1,86; 2,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 2,75</t>
+          <t>2,27; 2,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,52</t>
+          <t>2,15; 2,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 1,96</t>
+          <t>1,66; 1,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,55</t>
+          <t>2,2; 2,51</t>
         </is>
       </c>
     </row>
@@ -1076,14 +1076,14 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>2,28</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
           <t>4,34</t>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,38</t>
+          <t>2,11; 2,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,84</t>
+          <t>2,0; 2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 2,63</t>
+          <t>2,3; 2,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 3,02</t>
+          <t>2,62; 2,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,12</t>
+          <t>2,57; 3,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,7</t>
+          <t>2,42; 2,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,34; 2,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 2,88</t>
+          <t>2,65; 2,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/TRISTEZA-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>2,02</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>2,97</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>2,6</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,62</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,67; 3,38</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 3,41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4,47; 5,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>1,67; 2,34</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 3,43</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,47; 5,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 3,41</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>3,49; 3,93</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 4,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 4,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>2,7; 3,31</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,42; 3,84</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,28; 4,8</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 4,67</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>3,25; 3,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 3,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 4,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>2,38; 2,86</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 3,61</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 4,82</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,9</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,33</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>2,85</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,59</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,95; 2,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,37; 2,79</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 4,29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,17; 2,49</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 3,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,0; 4,29</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 2,79</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>2,28; 2,54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 3,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 4,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,7; 3,0</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 3,17</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,97; 4,26</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 3,49</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>2,14; 2,36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 3,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,02; 4,22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,48; 2,71</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 3,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>4,02; 4,22</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,08</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>2,12</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,45</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>4,61</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>1,87</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,59</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>2,3</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,45; 1,84</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 2,44</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 4,81</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>1,9; 2,35</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 1,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 4,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,44</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,92; 2,29</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 2,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 4,84</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>2,26; 2,68</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 2,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 4,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 2,71</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>1,73; 2,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 2,51</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,43; 4,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>2,15; 2,46</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 1,94</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>4,43; 4,76</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,2; 2,51</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,28</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>2,35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>2,51</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,98; 2,21</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 2,63</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4,23; 4,45</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>2,11; 2,37</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 2,89</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 4,45</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,63</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>2,5; 2,69</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 3,2</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 4,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>2,62; 2,85</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 3,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 4,44</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 3,2</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>2,27; 2,42</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>2,65; 2,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 4,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>2,42; 2,59</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 2,81</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 4,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 2,9</t>
         </is>
       </c>
     </row>
